--- a/biology/Botanique/Bulbophyllum_alinae/Bulbophyllum_alinae.xlsx
+++ b/biology/Botanique/Bulbophyllum_alinae/Bulbophyllum_alinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bulbophyllum alinae Slazch. est une espèce d'orchidées du genre Bulbophyllum, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique alinae fait référence à l'épouse de Dariusz Szlachetko, Alina[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique alinae fait référence à l'épouse de Dariusz Szlachetko, Alina.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle possède des pseudobulbes de 2 à 2,5 cm de longueur et atteignant 0,8 cm de diamètre. distants de 2,5 à 3 cm les uns des autres, coniques-ovoïdes, triangulaires à orné de 5 côtés, vert clair, unifoliés, une feuille pétiolée, assez épaisse, coriace, obtuse, vert pâle en dessous, obtuse, une inflorescence dense, atteignant 40,5 cm, glabre, composée d'environ 25 fleurs, un rachis non aplati, des fleurs glabres, vert-jaune, un labelle avec des poils rouge-violet foncés, recourbé et élargi à la base, oblong-lancéolé, charnu, des bractées florales d'environ 0,6 cm, ovales-lancéolées, aiguës.
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve sur le Mont des éléphants au Cameroun.
 </t>
@@ -604,7 +622,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces épiphytes se développent sur de grosses branches d'arbre en forêts atlantiques littorales et biafréennes de basse à moyenne altitude.
 </t>
